--- a/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_1.xlsx
+++ b/simulation_data/one_step_algorithm/1s_error_level_8_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>89.75794021652906</v>
+        <v>89.82735198591789</v>
       </c>
       <c r="D2" t="n">
-        <v>1.059102857351677</v>
+        <v>1.003796002814693</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>88.91689216359038</v>
+        <v>89.10613574124676</v>
       </c>
       <c r="D3" t="n">
-        <v>1.049843864264625</v>
+        <v>0.9652821395635828</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>87.96008512796391</v>
+        <v>88.05559316192586</v>
       </c>
       <c r="D4" t="n">
-        <v>1.110900019515918</v>
+        <v>0.997070854081525</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>86.99447906227535</v>
+        <v>86.90748241336587</v>
       </c>
       <c r="D5" t="n">
-        <v>1.001535072540536</v>
+        <v>1.070274799662706</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>85.92021775068963</v>
+        <v>85.91631376975145</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9234952536289944</v>
+        <v>1.093405154219584</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>84.95133669789067</v>
+        <v>85.16147264885971</v>
       </c>
       <c r="D7" t="n">
-        <v>1.04605240869551</v>
+        <v>1.025929741801402</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>83.91963746619167</v>
+        <v>83.81549505638</v>
       </c>
       <c r="D8" t="n">
-        <v>1.05683320577367</v>
+        <v>1.106000191884739</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>83.02091483117809</v>
+        <v>82.82590680875889</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9203650766900928</v>
+        <v>1.017438736344549</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>82.1723030535381</v>
+        <v>82.15168506093461</v>
       </c>
       <c r="D10" t="n">
-        <v>1.099750255669982</v>
+        <v>0.9676054598183372</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>81.08865078295787</v>
+        <v>80.8751736982674</v>
       </c>
       <c r="D11" t="n">
-        <v>1.02038896812361</v>
+        <v>0.9889659329376183</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.08456535829504</v>
+        <v>80.08122890485595</v>
       </c>
       <c r="D12" t="n">
-        <v>0.9664851195574664</v>
+        <v>1.003588373767105</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>79.20764274118214</v>
+        <v>78.94031378233683</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9791084404927437</v>
+        <v>1.113430199693227</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>77.95720174998179</v>
+        <v>78.16370337520112</v>
       </c>
       <c r="D14" t="n">
-        <v>1.064770861035555</v>
+        <v>1.062514605825954</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>77.04103028118406</v>
+        <v>77.14873868334594</v>
       </c>
       <c r="D15" t="n">
-        <v>1.059067935352766</v>
+        <v>1.100106083683299</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>76.03216603233597</v>
+        <v>76.01653136945538</v>
       </c>
       <c r="D16" t="n">
-        <v>1.009047045992303</v>
+        <v>1.129752727512263</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>75.07844849723745</v>
+        <v>74.78632440220186</v>
       </c>
       <c r="D17" t="n">
-        <v>1.06749778737138</v>
+        <v>0.898523554187164</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>74.09484961594775</v>
+        <v>73.92044781225852</v>
       </c>
       <c r="D18" t="n">
-        <v>1.186539597881004</v>
+        <v>0.9714692200409726</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>72.79202722148179</v>
+        <v>73.17830970652385</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9757920117777255</v>
+        <v>0.9700061031165284</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>71.92792560179953</v>
+        <v>71.93816724215154</v>
       </c>
       <c r="D20" t="n">
-        <v>1.067862671296792</v>
+        <v>0.9291916167503299</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>70.8538346323482</v>
+        <v>70.94385064618467</v>
       </c>
       <c r="D21" t="n">
-        <v>1.007463261768518</v>
+        <v>0.9616572592102469</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>69.90872204686208</v>
+        <v>70.14421140172499</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9525269324017994</v>
+        <v>0.9120885855554404</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.10565141401199</v>
+        <v>68.88139646095168</v>
       </c>
       <c r="D23" t="n">
-        <v>1.075013581561837</v>
+        <v>0.9637161051252</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>68.04317432937221</v>
+        <v>67.96109539692455</v>
       </c>
       <c r="D24" t="n">
-        <v>1.086363821015889</v>
+        <v>0.8932309759567904</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>66.99230814198626</v>
+        <v>66.93059104393249</v>
       </c>
       <c r="D25" t="n">
-        <v>1.034136811149203</v>
+        <v>1.074911203349021</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>66.02891859168957</v>
+        <v>66.01900599764693</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9164197062093831</v>
+        <v>1.078828918065648</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>64.90782495260424</v>
+        <v>64.93886246745542</v>
       </c>
       <c r="D27" t="n">
-        <v>1.009346931733288</v>
+        <v>0.9738638823816886</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>64.09142536749715</v>
+        <v>63.93373368476043</v>
       </c>
       <c r="D28" t="n">
-        <v>1.014986259501166</v>
+        <v>1.111351826900749</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>62.86037306908542</v>
+        <v>63.13841811543681</v>
       </c>
       <c r="D29" t="n">
-        <v>0.870578648206032</v>
+        <v>1.062253068042753</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>61.92172317264794</v>
+        <v>62.00735047822121</v>
       </c>
       <c r="D30" t="n">
-        <v>1.024277886696757</v>
+        <v>0.9701775320507562</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>60.89913172885085</v>
+        <v>61.07045135728783</v>
       </c>
       <c r="D31" t="n">
-        <v>1.071797939553605</v>
+        <v>0.9432560457257951</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>59.89708466431735</v>
+        <v>59.95915127008331</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9659442596771498</v>
+        <v>1.156136759125981</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.01626637684542</v>
+        <v>58.91975238471962</v>
       </c>
       <c r="D33" t="n">
-        <v>1.038546697827789</v>
+        <v>0.9237495405285687</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>58.08500213036207</v>
+        <v>58.06454904124718</v>
       </c>
       <c r="D34" t="n">
-        <v>1.012442437913853</v>
+        <v>1.077898716399585</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>57.09018999232978</v>
+        <v>56.9210413968707</v>
       </c>
       <c r="D35" t="n">
-        <v>0.9370316184358025</v>
+        <v>1.006118548636813</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>56.15355059042423</v>
+        <v>56.03504110317272</v>
       </c>
       <c r="D36" t="n">
-        <v>1.017181162562318</v>
+        <v>0.9256712181716481</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>54.94947514879361</v>
+        <v>54.86725934839109</v>
       </c>
       <c r="D37" t="n">
-        <v>1.068253889600686</v>
+        <v>0.9964203250548801</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>53.74090167445671</v>
+        <v>54.15409444928828</v>
       </c>
       <c r="D38" t="n">
-        <v>1.02806911463672</v>
+        <v>1.122722254491298</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>52.89949329749284</v>
+        <v>53.01031852121605</v>
       </c>
       <c r="D39" t="n">
-        <v>1.057302501822903</v>
+        <v>0.9937937445996785</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.75514660413896</v>
+        <v>51.99083316427971</v>
       </c>
       <c r="D40" t="n">
-        <v>0.8653344483634787</v>
+        <v>1.068926789593552</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.03361433530419</v>
+        <v>51.12697867043114</v>
       </c>
       <c r="D41" t="n">
-        <v>0.9820837635301771</v>
+        <v>0.9200220732453879</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>49.98384660253114</v>
+        <v>50.12589982678309</v>
       </c>
       <c r="D42" t="n">
-        <v>1.029110913860789</v>
+        <v>0.8983416794811491</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>49.00092249260271</v>
+        <v>49.03753537680701</v>
       </c>
       <c r="D43" t="n">
-        <v>1.026838711540055</v>
+        <v>0.9481135032524708</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>48.09394080398527</v>
+        <v>47.9877708525145</v>
       </c>
       <c r="D44" t="n">
-        <v>1.037948172105229</v>
+        <v>0.998328270277773</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>47.06361340470279</v>
+        <v>47.13794066216044</v>
       </c>
       <c r="D45" t="n">
-        <v>0.988863911219427</v>
+        <v>1.030077839113819</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.04434399756841</v>
+        <v>45.70899226868804</v>
       </c>
       <c r="D46" t="n">
-        <v>0.9488634931056596</v>
+        <v>1.006334240256542</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.1100916598087</v>
+        <v>44.91499258964652</v>
       </c>
       <c r="D47" t="n">
-        <v>1.069059461511172</v>
+        <v>1.069350766903235</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>44.02729802814332</v>
+        <v>44.07236811520222</v>
       </c>
       <c r="D48" t="n">
-        <v>0.9603898251488645</v>
+        <v>0.945117496278072</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>42.93999494912708</v>
+        <v>43.15754152449836</v>
       </c>
       <c r="D49" t="n">
-        <v>1.021637608215558</v>
+        <v>1.072915084617199</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.07893947759965</v>
+        <v>41.98399730464139</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8648526188996373</v>
+        <v>0.999340699512383</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>40.96862277183109</v>
+        <v>41.05892596769649</v>
       </c>
       <c r="D51" t="n">
-        <v>0.9914134096838214</v>
+        <v>1.020289864924773</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>39.99123449021521</v>
+        <v>40.11903318758715</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8673741640788754</v>
+        <v>0.9515724959979921</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>38.94383884494623</v>
+        <v>38.95456687487417</v>
       </c>
       <c r="D53" t="n">
-        <v>0.8980981455112095</v>
+        <v>0.9301342026275796</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>38.01490095682045</v>
+        <v>37.84997799197044</v>
       </c>
       <c r="D54" t="n">
-        <v>0.9373156859402337</v>
+        <v>1.050893450071299</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.12469111757311</v>
+        <v>37.1863317558882</v>
       </c>
       <c r="D55" t="n">
-        <v>1.010927873864681</v>
+        <v>1.035137284766851</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.13245181487153</v>
+        <v>35.7909501914961</v>
       </c>
       <c r="D56" t="n">
-        <v>0.9154734529570141</v>
+        <v>0.9227397219000137</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>34.99721821643902</v>
+        <v>35.00142495552649</v>
       </c>
       <c r="D57" t="n">
-        <v>0.9363610350114313</v>
+        <v>0.9134465511796318</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>33.98525365295056</v>
+        <v>33.99875738893039</v>
       </c>
       <c r="D58" t="n">
-        <v>0.8682794940253011</v>
+        <v>1.043413746973131</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>32.79105677797034</v>
+        <v>33.00205194241582</v>
       </c>
       <c r="D59" t="n">
-        <v>0.9046929718113071</v>
+        <v>0.8794623227255262</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>32.11813993182104</v>
+        <v>31.92348186847135</v>
       </c>
       <c r="D60" t="n">
-        <v>0.9496027950108965</v>
+        <v>0.9489928561526714</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>31.00561948957904</v>
+        <v>31.08903028718243</v>
       </c>
       <c r="D61" t="n">
-        <v>1.04605216318494</v>
+        <v>0.9557293739205605</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>30.05274628762497</v>
+        <v>29.9458445134115</v>
       </c>
       <c r="D62" t="n">
-        <v>1.007206100299532</v>
+        <v>0.9068464255603754</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.00431369793318</v>
+        <v>29.06375517801879</v>
       </c>
       <c r="D63" t="n">
-        <v>0.8794932285431245</v>
+        <v>0.8553459939238579</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>27.97214060337654</v>
+        <v>28.11762976036589</v>
       </c>
       <c r="D64" t="n">
-        <v>1.01391138961271</v>
+        <v>0.872496247727695</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>26.97304051587035</v>
+        <v>26.90128549746532</v>
       </c>
       <c r="D65" t="n">
-        <v>0.9227564426410675</v>
+        <v>1.032989616585672</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>25.92812544492147</v>
+        <v>25.99135726650538</v>
       </c>
       <c r="D66" t="n">
-        <v>0.9091594714878196</v>
+        <v>0.9341294313770532</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>25.11275655047507</v>
+        <v>25.06168060903941</v>
       </c>
       <c r="D67" t="n">
-        <v>0.9481978253942296</v>
+        <v>0.8533426923243267</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>23.98176739526321</v>
+        <v>23.91286127334375</v>
       </c>
       <c r="D68" t="n">
-        <v>1.062438374871975</v>
+        <v>0.9728253995744277</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.97830671221373</v>
+        <v>22.92639417445001</v>
       </c>
       <c r="D69" t="n">
-        <v>0.884814462980327</v>
+        <v>0.9242974689150136</v>
       </c>
     </row>
   </sheetData>
